--- a/SW6book/book2_Billie_translate/temp.xlsx
+++ b/SW6book/book2_Billie_translate/temp.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\SW6book\book2_Billie_translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7419D4BE-A2A9-4C5E-A609-0A763A6872B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399ACC92-1832-419E-9584-7DB79CD9E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet24" sheetId="24" r:id="rId2"/>
+    <sheet name="Sheet34" sheetId="59" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">DET ÄR SÅ MYCKET folk på perrongen att det är lätt att komma bort, som tur är. </t>
   </si>
@@ -136,49 +136,148 @@
     <t>我来回滚动袋子的轮子。</t>
   </si>
   <si>
-    <t xml:space="preserve">Cecilia bryr sig om mig, fast vi inte är nära. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Det är faktiskt ganska fint. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">När jag ska krama henne svider det lite i ögonen som när det ska komma tårar. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Det är inte för att jag är ledsen utan för att jag inte gillar att säga hej då. </t>
-  </si>
-  <si>
-    <t>Jag gråter på alla filmer när folk ska gå ifrån varandra, även om det inte är huvudpersonerna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cecilia cares about me, even though we're not close. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's actually quite nice. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When I go to hug her, my eyes sting a bit like when tears are about to fall. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's not because I'm sad, but because I don't like to say goodbye. </t>
-  </si>
-  <si>
-    <t>I cry at all movies when people are about to part, even if it's not the main characters.</t>
-  </si>
-  <si>
-    <t>塞西莉亚很关心我，尽管我们并不亲近。</t>
-  </si>
-  <si>
-    <t>这其实挺好的。</t>
-  </si>
-  <si>
-    <t>当我去拥抱她时，我的眼睛有点刺痛，就像眼泪要掉下来一样。</t>
-  </si>
-  <si>
-    <t>这不是因为我伤心，而是因为我不喜欢说再见。</t>
-  </si>
-  <si>
-    <t>在所有电影中，当人们互相离别时，即使不是主角，我也会哭。</t>
+    <t xml:space="preserve">Vi tyckte att alla här var tråkiga och tysta. Jag försökte prata, men ingen sa nånting tillbaka. </t>
+  </si>
+  <si>
+    <t>Kan de inte skratta i Sverige?” tänkte jag.”</t>
+  </si>
+  <si>
+    <t>Hur blev det sen?” frågar jag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jag älskar Solkullen”, svarar hon. ”Jag älskar mitt jobb också, men drömmer fortfarande om Stockholm.” </t>
+  </si>
+  <si>
+    <t>Hon vänder sig mot Evin och gör en min.</t>
+  </si>
+  <si>
+    <t>Men mina barn är så tråkiga. De vill absolut inte flytta.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det syns att Evin inte vill att jag ska veta att hon är typen som vill stanna i Bokarp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hon tar mig i armen och drar ut mig från köket innan jag har hunnit ställa fler frågor till mamman. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekunden efter säger hon att jag ska följa med på pingisträningen och plockar fram extra träningskläder och handduk. </t>
+  </si>
+  <si>
+    <t>Jag messar Petra om att jag går med till hallen och får mess tillbaka om att jag ska gå hem med Mange och Alvar efteråt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jag sitter på Evins pakethållare. Det har jag aldrig gjort förut. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingen jag känner cyklar. Ingen i stan sitter på en annans pakethållare. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stan är det farligt att cykla, inte här. Det kommer knappt några bilar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evin börjar sjunga ”Man in the mirror” igen. Jag stämmer in. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De vi passerar stirrar med fågelholksmunnar. Vi parkerar cykeln utanför hallen. </t>
+  </si>
+  <si>
+    <t>Evin vill gå armkrok fram till ingången. Jag ser att hon är stolt över att komma med mig.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We thought everyone here was boring and quiet. I tried to talk, but no one said anything back. </t>
+  </si>
+  <si>
+    <t>Can't they laugh in Sweden?” I thought.”</t>
+  </si>
+  <si>
+    <t>What happened next?” I ask.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love Solkullen,” she replies. “I love my job too, but I still dream of Stockholm.” </t>
+  </si>
+  <si>
+    <t>She turns to Evin and makes a face.</t>
+  </si>
+  <si>
+    <t>But my children are so boring. They don't want to move at all.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's clear that Evin doesn't want me to know that she's the type who wants to stay in Bokarp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She grabs me by the arm and pulls me out of the kitchen before I have had time to ask the mother more questions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seconds later she tells me to come along to the table tennis training and picks out extra training clothes and towel. </t>
+  </si>
+  <si>
+    <t>I text Petra that I'm going to the hall and get a text back that I'm going home with Mange and Alvar afterwards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I sit on Evins parcel rack. I have never done that before. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No one I know rides a bike. No one in town sits on someone else's rack. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the city it's dangerous to ride a bike, not here. There are hardly any cars. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evin starts singing “Man in the mirror” again. I join in. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Those we pass stare with bird's nest mouths. We park the bike outside the hall. </t>
+  </si>
+  <si>
+    <t>Evin wants to walk arm in arm to the entrance. I see that she is proud to come with me.</t>
+  </si>
+  <si>
+    <t>我们以为这里的每个人都很无聊，很安静。我试着说话，但没人回话。</t>
+  </si>
+  <si>
+    <t>瑞典人就不能笑吗？我想。”</t>
+  </si>
+  <si>
+    <t>接下来发生了什么？我问。</t>
+  </si>
+  <si>
+    <t>我爱索尔库伦，"她回答。“我也爱我的工作，但我仍然梦想着斯德哥尔摩。</t>
+  </si>
+  <si>
+    <t>她转向埃文，做了个鬼脸。</t>
+  </si>
+  <si>
+    <t>但我的孩子们太无聊了。他们根本不想搬家"。</t>
+  </si>
+  <si>
+    <t>看得出来，埃文不想让我知道她是那种想留在博卡普的人。</t>
+  </si>
+  <si>
+    <t>我还没来得及问妈妈更多问题，她就抓住我的胳膊把我拉出了厨房。</t>
+  </si>
+  <si>
+    <t>几秒钟后，她告诉我一起去参加乒乓球训练，并挑选了额外的训练服和毛巾。</t>
+  </si>
+  <si>
+    <t>我给佩特拉发短信说我要去大厅，她回短信说我之后要和曼格和阿尔瓦一起回家。</t>
+  </si>
+  <si>
+    <t>我坐在埃文斯的包裹架上。我以前从没这么做过。</t>
+  </si>
+  <si>
+    <t>我不认识骑自行车的人。在城市里，没人会坐在别人的包裹架上。</t>
+  </si>
+  <si>
+    <t>在城市里骑车很危险，在这里不会。这里几乎没有汽车。</t>
+  </si>
+  <si>
+    <t>埃文又开始唱 “镜子里的男人 ”了。我也加入进来。</t>
+  </si>
+  <si>
+    <t>我们经过的人都瞪大了鸟窝般的嘴巴。我们把自行车停在大厅外面。</t>
+  </si>
+  <si>
+    <t>埃文想手拉手走到入口处。我看到她为能和我一起走而感到自豪。</t>
   </si>
 </sst>
 </file>
@@ -822,11 +921,6 @@
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
@@ -834,11 +928,11 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
@@ -846,11 +940,11 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -858,29 +952,33 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4A6B1-0C4B-4775-AEB6-6EA98ED07672}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F123F5-E0E3-42B3-A568-16BCDAE0E293}">
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C19"/>
+      <selection activeCell="C3" sqref="C3:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="49.6796875" customWidth="1"/>
-    <col min="2" max="2" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="71.04296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.75">
@@ -890,12 +988,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.75">
@@ -905,12 +1003,12 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.75">
@@ -920,12 +1018,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C11" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.75">
@@ -935,12 +1033,12 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C15" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.75">
@@ -950,12 +1048,177 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A57" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C63" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/SW6book/book2_Billie_translate/temp.xlsx
+++ b/SW6book/book2_Billie_translate/temp.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\SW6book\book2_Billie_translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399ACC92-1832-419E-9584-7DB79CD9E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5400CA09-8F51-471A-865E-7DDC34A16E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet34" sheetId="59" r:id="rId2"/>
+    <sheet name="Sheet18" sheetId="78" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve">DET ÄR SÅ MYCKET folk på perrongen att det är lätt att komma bort, som tur är. </t>
   </si>
@@ -136,148 +136,139 @@
     <t>我来回滚动袋子的轮子。</t>
   </si>
   <si>
-    <t xml:space="preserve">Vi tyckte att alla här var tråkiga och tysta. Jag försökte prata, men ingen sa nånting tillbaka. </t>
-  </si>
-  <si>
-    <t>Kan de inte skratta i Sverige?” tänkte jag.”</t>
-  </si>
-  <si>
-    <t>Hur blev det sen?” frågar jag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jag älskar Solkullen”, svarar hon. ”Jag älskar mitt jobb också, men drömmer fortfarande om Stockholm.” </t>
-  </si>
-  <si>
-    <t>Hon vänder sig mot Evin och gör en min.</t>
-  </si>
-  <si>
-    <t>Men mina barn är så tråkiga. De vill absolut inte flytta.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Det syns att Evin inte vill att jag ska veta att hon är typen som vill stanna i Bokarp. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hon tar mig i armen och drar ut mig från köket innan jag har hunnit ställa fler frågor till mamman. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekunden efter säger hon att jag ska följa med på pingisträningen och plockar fram extra träningskläder och handduk. </t>
-  </si>
-  <si>
-    <t>Jag messar Petra om att jag går med till hallen och får mess tillbaka om att jag ska gå hem med Mange och Alvar efteråt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jag sitter på Evins pakethållare. Det har jag aldrig gjort förut. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingen jag känner cyklar. Ingen i stan sitter på en annans pakethållare. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I stan är det farligt att cykla, inte här. Det kommer knappt några bilar. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evin börjar sjunga ”Man in the mirror” igen. Jag stämmer in. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De vi passerar stirrar med fågelholksmunnar. Vi parkerar cykeln utanför hallen. </t>
-  </si>
-  <si>
-    <t>Evin vill gå armkrok fram till ingången. Jag ser att hon är stolt över att komma med mig.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We thought everyone here was boring and quiet. I tried to talk, but no one said anything back. </t>
-  </si>
-  <si>
-    <t>Can't they laugh in Sweden?” I thought.”</t>
-  </si>
-  <si>
-    <t>What happened next?” I ask.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I love Solkullen,” she replies. “I love my job too, but I still dream of Stockholm.” </t>
-  </si>
-  <si>
-    <t>She turns to Evin and makes a face.</t>
-  </si>
-  <si>
-    <t>But my children are so boring. They don't want to move at all.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's clear that Evin doesn't want me to know that she's the type who wants to stay in Bokarp. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">She grabs me by the arm and pulls me out of the kitchen before I have had time to ask the mother more questions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seconds later she tells me to come along to the table tennis training and picks out extra training clothes and towel. </t>
-  </si>
-  <si>
-    <t>I text Petra that I'm going to the hall and get a text back that I'm going home with Mange and Alvar afterwards.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I sit on Evins parcel rack. I have never done that before. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No one I know rides a bike. No one in town sits on someone else's rack. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the city it's dangerous to ride a bike, not here. There are hardly any cars. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evin starts singing “Man in the mirror” again. I join in. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Those we pass stare with bird's nest mouths. We park the bike outside the hall. </t>
-  </si>
-  <si>
-    <t>Evin wants to walk arm in arm to the entrance. I see that she is proud to come with me.</t>
-  </si>
-  <si>
-    <t>我们以为这里的每个人都很无聊，很安静。我试着说话，但没人回话。</t>
-  </si>
-  <si>
-    <t>瑞典人就不能笑吗？我想。”</t>
-  </si>
-  <si>
-    <t>接下来发生了什么？我问。</t>
-  </si>
-  <si>
-    <t>我爱索尔库伦，"她回答。“我也爱我的工作，但我仍然梦想着斯德哥尔摩。</t>
-  </si>
-  <si>
-    <t>她转向埃文，做了个鬼脸。</t>
-  </si>
-  <si>
-    <t>但我的孩子们太无聊了。他们根本不想搬家"。</t>
-  </si>
-  <si>
-    <t>看得出来，埃文不想让我知道她是那种想留在博卡普的人。</t>
-  </si>
-  <si>
-    <t>我还没来得及问妈妈更多问题，她就抓住我的胳膊把我拉出了厨房。</t>
-  </si>
-  <si>
-    <t>几秒钟后，她告诉我一起去参加乒乓球训练，并挑选了额外的训练服和毛巾。</t>
-  </si>
-  <si>
-    <t>我给佩特拉发短信说我要去大厅，她回短信说我之后要和曼格和阿尔瓦一起回家。</t>
-  </si>
-  <si>
-    <t>我坐在埃文斯的包裹架上。我以前从没这么做过。</t>
-  </si>
-  <si>
-    <t>我不认识骑自行车的人。在城市里，没人会坐在别人的包裹架上。</t>
-  </si>
-  <si>
-    <t>在城市里骑车很危险，在这里不会。这里几乎没有汽车。</t>
-  </si>
-  <si>
-    <t>埃文又开始唱 “镜子里的男人 ”了。我也加入进来。</t>
-  </si>
-  <si>
-    <t>我们经过的人都瞪大了鸟窝般的嘴巴。我们把自行车停在大厅外面。</t>
-  </si>
-  <si>
-    <t>埃文想手拉手走到入口处。我看到她为能和我一起走而感到自豪。</t>
+    <t>JORDENS ATMOSFÄR</t>
+  </si>
+  <si>
+    <t>Värmestrålning</t>
+  </si>
+  <si>
+    <t>Solstrålning</t>
+  </si>
+  <si>
+    <t>Atmosfären</t>
+  </si>
+  <si>
+    <t>Växthusgaser</t>
+  </si>
+  <si>
+    <t>Runt jorden finns ett skikt av gaser som vi allmänt kallar för ”atmosfär”.</t>
+  </si>
+  <si>
+    <t>En av gaserna är koldioxid. Den gasen är viktig för fotosyntesen och allt liv på jorden</t>
+  </si>
+  <si>
+    <t>Atmosfären är det som finns mellan oss på jordytan och världsrymden.</t>
+  </si>
+  <si>
+    <t>Atmosfären skyddar från skadlig strålning från världsrymden och solen.</t>
+  </si>
+  <si>
+    <t>Jordens atmosfär är helt avgörande för livet på jorden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmosfären släpper in solens ljus och värme, men hindrar att all värme strålar ut igen. </t>
+  </si>
+  <si>
+    <t>Det kallas växthuseffekten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Växthuseffekten gör att jordens medeltemperatur blir c:a +15 grader i stället för -24 grader. </t>
+  </si>
+  <si>
+    <t>Det betyder att utan atmosfär skulle det vara för kallt och inget liv skulle finnas.</t>
+  </si>
+  <si>
+    <t>Vi släpper ut koldioxid genom att förbrfänna fossila bränslen och därför ökar växthuefftekten och Jordens klimat blir varmare.</t>
+  </si>
+  <si>
+    <t>地球大气层</t>
+  </si>
+  <si>
+    <t>热辐射</t>
+  </si>
+  <si>
+    <t>太阳辐射</t>
+  </si>
+  <si>
+    <t>大气层</t>
+  </si>
+  <si>
+    <t>温室气体</t>
+  </si>
+  <si>
+    <t>地球周围有一层气体，我们通常称之为 “大气层”。</t>
+  </si>
+  <si>
+    <t>其中一种气体是二氧化碳。这种气体对光合作用和地球上的所有生命都至关重要。</t>
+  </si>
+  <si>
+    <t>大气层是地球表面和外太空之间的屏障。</t>
+  </si>
+  <si>
+    <t>大气层保护我们免受来自太空和太阳的有害辐射。</t>
+  </si>
+  <si>
+    <t>地球大气层对地球上的生命至关重要。</t>
+  </si>
+  <si>
+    <t>大气层让太阳的光和热进入，但阻止热量向外辐射。</t>
+  </si>
+  <si>
+    <t>这就是温室效应。</t>
+  </si>
+  <si>
+    <t>温室效应使地球的平均温度从零下 24 度变为 +15 度左右。</t>
+  </si>
+  <si>
+    <t>这意味着，如果没有大气层，地球就会太冷，也就不会有生命。</t>
+  </si>
+  <si>
+    <t>我们通过燃烧化石燃料排放二氧化碳，因此温室效应增强，地球气候变暖。</t>
+  </si>
+  <si>
+    <t>EARTH'S ATMOSPHERE</t>
+  </si>
+  <si>
+    <t>Thermal radiation</t>
+  </si>
+  <si>
+    <t>Solar radiation</t>
+  </si>
+  <si>
+    <t>The atmosphere</t>
+  </si>
+  <si>
+    <t>Greenhouse gases</t>
+  </si>
+  <si>
+    <t>Surrounding the Earth is a layer of gases that we commonly call the 'atmosphere'.</t>
+  </si>
+  <si>
+    <t>One of these gases is carbon dioxide. This gas is essential for photosynthesis and all life on Earth</t>
+  </si>
+  <si>
+    <t>The atmosphere is what lies between us on the Earth's surface and outer space.</t>
+  </si>
+  <si>
+    <t>It protects us from harmful radiation from space and the Sun.</t>
+  </si>
+  <si>
+    <t>The Earth's atmosphere is essential for life on Earth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The atmosphere lets in the sun's light and heat, but prevents any heat from radiating back out. </t>
+  </si>
+  <si>
+    <t>This is called the greenhouse effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The greenhouse effect causes the average temperature of the Earth to be around +15 degrees instead of -24 degrees. </t>
+  </si>
+  <si>
+    <t>This means that without an atmosphere, it would be too cold and there would be no life.</t>
+  </si>
+  <si>
+    <t>We emit carbon dioxide by burning fossil fuels and therefore the greenhouse effect increases and the Earth's climate becomes warmer.</t>
   </si>
 </sst>
 </file>
@@ -969,17 +960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F123F5-E0E3-42B3-A568-16BCDAE0E293}">
-  <dimension ref="A1:C63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E5DA6-4E4E-4117-86FC-D4F656DDC782}">
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C63"/>
+      <selection activeCell="B2" sqref="B2:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="71.04296875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -988,12 +976,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.75">
@@ -1003,12 +991,12 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.75">
@@ -1018,12 +1006,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C11" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.75">
@@ -1033,12 +1021,12 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C15" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.75">
@@ -1048,12 +1036,12 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C19" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.75">
@@ -1063,12 +1051,12 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B22" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C23" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.75">
@@ -1078,12 +1066,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B26" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C27" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.75">
@@ -1093,12 +1081,12 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C31" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.75">
@@ -1108,12 +1096,12 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B34" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C35" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.75">
@@ -1123,12 +1111,12 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B38" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C39" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.75">
@@ -1138,12 +1126,12 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B42" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C43" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.75">
@@ -1153,12 +1141,12 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B46" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C47" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.75">
@@ -1168,12 +1156,12 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B50" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C51" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.75">
@@ -1183,12 +1171,12 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B54" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C55" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.75">
@@ -1198,27 +1186,12 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B58" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C63" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/SW6book/book2_Billie_translate/temp.xlsx
+++ b/SW6book/book2_Billie_translate/temp.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\SW6book\book2_Billie_translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5400CA09-8F51-471A-865E-7DDC34A16E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F99583A-0AEA-4895-B540-8B53373E1EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="25996" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet18" sheetId="78" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="81" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">DET ÄR SÅ MYCKET folk på perrongen att det är lätt att komma bort, som tur är. </t>
   </si>
@@ -136,139 +136,67 @@
     <t>我来回滚动袋子的轮子。</t>
   </si>
   <si>
-    <t>JORDENS ATMOSFÄR</t>
-  </si>
-  <si>
-    <t>Värmestrålning</t>
-  </si>
-  <si>
-    <t>Solstrålning</t>
-  </si>
-  <si>
-    <t>Atmosfären</t>
-  </si>
-  <si>
-    <t>Växthusgaser</t>
-  </si>
-  <si>
-    <t>Runt jorden finns ett skikt av gaser som vi allmänt kallar för ”atmosfär”.</t>
-  </si>
-  <si>
-    <t>En av gaserna är koldioxid. Den gasen är viktig för fotosyntesen och allt liv på jorden</t>
-  </si>
-  <si>
-    <t>Atmosfären är det som finns mellan oss på jordytan och världsrymden.</t>
-  </si>
-  <si>
-    <t>Atmosfären skyddar från skadlig strålning från världsrymden och solen.</t>
-  </si>
-  <si>
-    <t>Jordens atmosfär är helt avgörande för livet på jorden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atmosfären släpper in solens ljus och värme, men hindrar att all värme strålar ut igen. </t>
-  </si>
-  <si>
-    <t>Det kallas växthuseffekten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Växthuseffekten gör att jordens medeltemperatur blir c:a +15 grader i stället för -24 grader. </t>
-  </si>
-  <si>
-    <t>Det betyder att utan atmosfär skulle det vara för kallt och inget liv skulle finnas.</t>
-  </si>
-  <si>
-    <t>Vi släpper ut koldioxid genom att förbrfänna fossila bränslen och därför ökar växthuefftekten och Jordens klimat blir varmare.</t>
-  </si>
-  <si>
-    <t>地球大气层</t>
-  </si>
-  <si>
-    <t>热辐射</t>
-  </si>
-  <si>
-    <t>太阳辐射</t>
-  </si>
-  <si>
-    <t>大气层</t>
-  </si>
-  <si>
-    <t>温室气体</t>
-  </si>
-  <si>
-    <t>地球周围有一层气体，我们通常称之为 “大气层”。</t>
-  </si>
-  <si>
-    <t>其中一种气体是二氧化碳。这种气体对光合作用和地球上的所有生命都至关重要。</t>
-  </si>
-  <si>
-    <t>大气层是地球表面和外太空之间的屏障。</t>
-  </si>
-  <si>
-    <t>大气层保护我们免受来自太空和太阳的有害辐射。</t>
-  </si>
-  <si>
-    <t>地球大气层对地球上的生命至关重要。</t>
-  </si>
-  <si>
-    <t>大气层让太阳的光和热进入，但阻止热量向外辐射。</t>
-  </si>
-  <si>
-    <t>这就是温室效应。</t>
-  </si>
-  <si>
-    <t>温室效应使地球的平均温度从零下 24 度变为 +15 度左右。</t>
-  </si>
-  <si>
-    <t>这意味着，如果没有大气层，地球就会太冷，也就不会有生命。</t>
-  </si>
-  <si>
-    <t>我们通过燃烧化石燃料排放二氧化碳，因此温室效应增强，地球气候变暖。</t>
-  </si>
-  <si>
-    <t>EARTH'S ATMOSPHERE</t>
-  </si>
-  <si>
-    <t>Thermal radiation</t>
-  </si>
-  <si>
-    <t>Solar radiation</t>
-  </si>
-  <si>
-    <t>The atmosphere</t>
-  </si>
-  <si>
-    <t>Greenhouse gases</t>
-  </si>
-  <si>
-    <t>Surrounding the Earth is a layer of gases that we commonly call the 'atmosphere'.</t>
-  </si>
-  <si>
-    <t>One of these gases is carbon dioxide. This gas is essential for photosynthesis and all life on Earth</t>
-  </si>
-  <si>
-    <t>The atmosphere is what lies between us on the Earth's surface and outer space.</t>
-  </si>
-  <si>
-    <t>It protects us from harmful radiation from space and the Sun.</t>
-  </si>
-  <si>
-    <t>The Earth's atmosphere is essential for life on Earth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The atmosphere lets in the sun's light and heat, but prevents any heat from radiating back out. </t>
-  </si>
-  <si>
-    <t>This is called the greenhouse effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The greenhouse effect causes the average temperature of the Earth to be around +15 degrees instead of -24 degrees. </t>
-  </si>
-  <si>
-    <t>This means that without an atmosphere, it would be too cold and there would be no life.</t>
-  </si>
-  <si>
-    <t>We emit carbon dioxide by burning fossil fuels and therefore the greenhouse effect increases and the Earth's climate becomes warmer.</t>
+    <t>SOLFÖRMÖRKELSE OCH MÅNFÖRMÖRKELSE</t>
+  </si>
+  <si>
+    <t>Månförmörkelse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">När solen, jorden och månen ligger i rad, och jorden är i mitten. </t>
+  </si>
+  <si>
+    <t>Jordens skugga träffar månen som därmed blir förmörkad, helt eller delvis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solförmörkelse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inträffar när månen passerar mellan jorden och solen och dessa ligger i en rät linje, </t>
+  </si>
+  <si>
+    <t>och då solen är helt eller delvis skymd för betraktare från jorden.</t>
+  </si>
+  <si>
+    <t>SOLAR ECLIPSE AND LUNAR ECLIPSE</t>
+  </si>
+  <si>
+    <t>Lunar eclipse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the sun, earth and moon are in a row, and the earth is in the middle. </t>
+  </si>
+  <si>
+    <t>The Earth's shadow hits the Moon, causing it to be partially or completely eclipsed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar eclipse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurs when the Moon passes between the Earth and the Sun and they are in a straight line, </t>
+  </si>
+  <si>
+    <t>and when the Sun is partially or completely obscured from view from Earth.</t>
+  </si>
+  <si>
+    <t>日食和月食</t>
+  </si>
+  <si>
+    <t>月食</t>
+  </si>
+  <si>
+    <t>当太阳、地球和月亮排成一排，地球位于中心时。</t>
+  </si>
+  <si>
+    <t>地球的影子击中月球，导致月球部分或全部被食。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日食 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">当月球经过地球和太阳之间，且两者在一条直线上时发生、 </t>
+  </si>
+  <si>
+    <t>从地球上看，太阳部分或完全被遮住。</t>
   </si>
 </sst>
 </file>
@@ -304,7 +232,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -599,319 +528,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
@@ -924,18 +878,222 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3995302-4341-4C48-9639-FFB35534240C}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="3" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -943,258 +1101,13 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E5DA6-4E4E-4117-86FC-D4F656DDC782}">
-  <dimension ref="A1:C59"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="C59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SW6book/book2_Billie_translate/temp.xlsx
+++ b/SW6book/book2_Billie_translate/temp.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\SW6book\book2_Billie_translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F99583A-0AEA-4895-B540-8B53373E1EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A104A4-76DE-48AC-A466-0B4D911DD892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="25996" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="81" r:id="rId2"/>
+    <sheet name="Sheet41" sheetId="121" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">DET ÄR SÅ MYCKET folk på perrongen att det är lätt att komma bort, som tur är. </t>
   </si>
@@ -136,67 +136,103 @@
     <t>我来回滚动袋子的轮子。</t>
   </si>
   <si>
-    <t>SOLFÖRMÖRKELSE OCH MÅNFÖRMÖRKELSE</t>
-  </si>
-  <si>
-    <t>Månförmörkelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">När solen, jorden och månen ligger i rad, och jorden är i mitten. </t>
-  </si>
-  <si>
-    <t>Jordens skugga träffar månen som därmed blir förmörkad, helt eller delvis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solförmörkelse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inträffar när månen passerar mellan jorden och solen och dessa ligger i en rät linje, </t>
-  </si>
-  <si>
-    <t>och då solen är helt eller delvis skymd för betraktare från jorden.</t>
-  </si>
-  <si>
-    <t>SOLAR ECLIPSE AND LUNAR ECLIPSE</t>
-  </si>
-  <si>
-    <t>Lunar eclipse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the sun, earth and moon are in a row, and the earth is in the middle. </t>
-  </si>
-  <si>
-    <t>The Earth's shadow hits the Moon, causing it to be partially or completely eclipsed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar eclipse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurs when the Moon passes between the Earth and the Sun and they are in a straight line, </t>
-  </si>
-  <si>
-    <t>and when the Sun is partially or completely obscured from view from Earth.</t>
-  </si>
-  <si>
-    <t>日食和月食</t>
-  </si>
-  <si>
-    <t>月食</t>
-  </si>
-  <si>
-    <t>当太阳、地球和月亮排成一排，地球位于中心时。</t>
-  </si>
-  <si>
-    <t>地球的影子击中月球，导致月球部分或全部被食。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日食 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">当月球经过地球和太阳之间，且两者在一条直线上时发生、 </t>
-  </si>
-  <si>
-    <t>从地球上看，太阳部分或完全被遮住。</t>
+    <t xml:space="preserve">Douglas och Salims ylande hörs fortfarande från grusplätten. </t>
+  </si>
+  <si>
+    <t>Alvar slår av på takten och tar ett djupt andetag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petra ... mamma, hon skulle hälsa på några hon träffat i kyrkan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uppe på Solkullen. Hon tog med sig Casper också. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Han vägrade sitta i vagnen och skulle gå själv, men ville inte hålla handen. </t>
+  </si>
+  <si>
+    <t>Och sen, utanför kiosken, när hon hejade på några hon känner, sprang Casper iväg, ut i gatan, och så ...”</t>
+  </si>
+  <si>
+    <t>Alvar darrar på underläppen. Hans ansikte är knallrött.</t>
+  </si>
+  <si>
+    <t>Det kom en bil?” frågar jag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvar nickar. Han andas så häftigt att jag måste lägga en hand på honom. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det dröjer innan han lugnar sig. </t>
+  </si>
+  <si>
+    <t>Jag minns i samma sekund vad Roya sa, att jag märker vilka som behöver hjälp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas and Salim's howls can still be heard from the gravel field. </t>
+  </si>
+  <si>
+    <t>Alvar slows down and takes a deep breath.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petra ... Mom, she was going to visit some people she met in church. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up on Solkullen. She took Casper with her too. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He refused to sit in the carriage and was going to walk by himself, but didn't want to hold her hand. </t>
+  </si>
+  <si>
+    <t>And then, outside the kiosk, when she was cheering on some people she knows, Casper ran away, into the street, and so ...”</t>
+  </si>
+  <si>
+    <t>Alvar trembles on his lower lip. His face is bright red.</t>
+  </si>
+  <si>
+    <t>There was a car?” I ask.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvar nods. He's breathing so hard that I have to put a hand on him. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It takes a while before he calms down. </t>
+  </si>
+  <si>
+    <t>I remember in the same second what Roya said, that I notice who needs help.</t>
+  </si>
+  <si>
+    <t>道格拉斯和萨利姆的嚎叫声仍可从碎石场上听到。</t>
+  </si>
+  <si>
+    <t>阿尔瓦放慢脚步，深吸一口气。</t>
+  </si>
+  <si>
+    <t>佩特拉 妈妈，她要去拜访一些她在教堂里认识的人。</t>
+  </si>
+  <si>
+    <t>在索尔库伦。她还带着卡斯珀。</t>
+  </si>
+  <si>
+    <t>他不肯坐在婴儿车里，要自己走，但又不想牵着她的手。</t>
+  </si>
+  <si>
+    <t>然后，在小卖部外面，当她为一些熟人欢呼时，卡斯珀跑了，跑到了街上，于是......”</t>
+  </si>
+  <si>
+    <t>阿尔瓦的下嘴唇在颤抖。他的脸涨得通红。</t>
+  </si>
+  <si>
+    <t>当时有辆车？我问。</t>
+  </si>
+  <si>
+    <t>阿尔瓦点点头。他呼吸急促，我不得不用手按住他。</t>
+  </si>
+  <si>
+    <t>过了好一会儿，他才平静下来。</t>
+  </si>
+  <si>
+    <t>就在同一秒钟，我想起了罗亚说过的话，我注意到谁需要帮助。</t>
   </si>
 </sst>
 </file>
@@ -518,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -836,12 +872,35 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -854,46 +913,23 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3995302-4341-4C48-9639-FFB35534240C}">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCE32B-FCCE-4171-9433-5AAAA2E0500A}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:A1048576"/>
+      <selection activeCell="A44" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -910,14 +946,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -936,14 +972,14 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -962,14 +998,14 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -988,14 +1024,14 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1014,14 +1050,14 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1040,14 +1076,14 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1066,23 +1102,143 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="43">
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>

--- a/SW6book/book2_Billie_translate/temp.xlsx
+++ b/SW6book/book2_Billie_translate/temp.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\SW6book\book2_Billie_translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A104A4-76DE-48AC-A466-0B4D911DD892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51706F3A-F3A1-4F82-AC50-A0D8D9849647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="16637" windowHeight="8837" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet41" sheetId="121" r:id="rId2"/>
+    <sheet name="Sheet34" sheetId="155" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">DET ÄR SÅ MYCKET folk på perrongen att det är lätt att komma bort, som tur är. </t>
   </si>
@@ -136,103 +136,40 @@
     <t>我来回滚动袋子的轮子。</t>
   </si>
   <si>
-    <t xml:space="preserve">Douglas och Salims ylande hörs fortfarande från grusplätten. </t>
-  </si>
-  <si>
-    <t>Alvar slår av på takten och tar ett djupt andetag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petra ... mamma, hon skulle hälsa på några hon träffat i kyrkan. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uppe på Solkullen. Hon tog med sig Casper också. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Han vägrade sitta i vagnen och skulle gå själv, men ville inte hålla handen. </t>
-  </si>
-  <si>
-    <t>Och sen, utanför kiosken, när hon hejade på några hon känner, sprang Casper iväg, ut i gatan, och så ...”</t>
-  </si>
-  <si>
-    <t>Alvar darrar på underläppen. Hans ansikte är knallrött.</t>
-  </si>
-  <si>
-    <t>Det kom en bil?” frågar jag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvar nickar. Han andas så häftigt att jag måste lägga en hand på honom. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Det dröjer innan han lugnar sig. </t>
-  </si>
-  <si>
-    <t>Jag minns i samma sekund vad Roya sa, att jag märker vilka som behöver hjälp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Douglas and Salim's howls can still be heard from the gravel field. </t>
-  </si>
-  <si>
-    <t>Alvar slows down and takes a deep breath.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petra ... Mom, she was going to visit some people she met in church. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Up on Solkullen. She took Casper with her too. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">He refused to sit in the carriage and was going to walk by himself, but didn't want to hold her hand. </t>
-  </si>
-  <si>
-    <t>And then, outside the kiosk, when she was cheering on some people she knows, Casper ran away, into the street, and so ...”</t>
-  </si>
-  <si>
-    <t>Alvar trembles on his lower lip. His face is bright red.</t>
-  </si>
-  <si>
-    <t>There was a car?” I ask.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvar nods. He's breathing so hard that I have to put a hand on him. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It takes a while before he calms down. </t>
-  </si>
-  <si>
-    <t>I remember in the same second what Roya said, that I notice who needs help.</t>
-  </si>
-  <si>
-    <t>道格拉斯和萨利姆的嚎叫声仍可从碎石场上听到。</t>
-  </si>
-  <si>
-    <t>阿尔瓦放慢脚步，深吸一口气。</t>
-  </si>
-  <si>
-    <t>佩特拉 妈妈，她要去拜访一些她在教堂里认识的人。</t>
-  </si>
-  <si>
-    <t>在索尔库伦。她还带着卡斯珀。</t>
-  </si>
-  <si>
-    <t>他不肯坐在婴儿车里，要自己走，但又不想牵着她的手。</t>
-  </si>
-  <si>
-    <t>然后，在小卖部外面，当她为一些熟人欢呼时，卡斯珀跑了，跑到了街上，于是......”</t>
-  </si>
-  <si>
-    <t>阿尔瓦的下嘴唇在颤抖。他的脸涨得通红。</t>
-  </si>
-  <si>
-    <t>当时有辆车？我问。</t>
-  </si>
-  <si>
-    <t>阿尔瓦点点头。他呼吸急促，我不得不用手按住他。</t>
-  </si>
-  <si>
-    <t>过了好一会儿，他才平静下来。</t>
-  </si>
-  <si>
-    <t>就在同一秒钟，我想起了罗亚说过的话，我注意到谁需要帮助。</t>
+    <t xml:space="preserve">Vi går arm i arm på bakgatorna som är framgator i Bokarp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jag ser några från klassen som kommer gående en bit bort och släpper honom. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvar ger mig en tacksam blick. </t>
+  </si>
+  <si>
+    <t>Man kan inte förändra hela världen på några ynka veckor, så är det bara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We walk arm in arm on the back streets that are front streets in Bokarp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see some of the class walking a bit away and let him go. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvar gives me a grateful look. </t>
+  </si>
+  <si>
+    <t>You can't change the whole world in a few short weeks, that's just the way it is.</t>
+  </si>
+  <si>
+    <t>我们手挽手走在博卡普的前街后巷。</t>
+  </si>
+  <si>
+    <t>我看到班里的一些同学走远了，就让他走了。</t>
+  </si>
+  <si>
+    <t>阿尔瓦感激地看了我一眼。</t>
+  </si>
+  <si>
+    <t>你不可能在短短几周内改变整个世界，事情就是这样。</t>
   </si>
 </sst>
 </file>
@@ -558,312 +495,312 @@
       <selection activeCell="A7" sqref="A7:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="1" max="1" width="66.08984375" customWidth="1"/>
+    <col min="1" max="1" width="66.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
@@ -925,332 +862,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCE32B-FCCE-4171-9433-5AAAA2E0500A}">
-  <dimension ref="A1:C43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3198B47-67D2-44E9-82A7-FAF143505859}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A1:A1048576"/>
+      <selection activeCell="A16" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="1"/>
+    <col min="1" max="3" width="8.921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
+  <mergeCells count="15">
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
